--- a/biology/Médecine/Flumazénil/Flumazénil.xlsx
+++ b/biology/Médecine/Flumazénil/Flumazénil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flumaz%C3%A9nil</t>
+          <t>Flumazénil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le flumazénil est un composé polycyclique qui est antagoniste compétitif des récepteurs des benzodiazépines (les récepteurs GABAA). Il est utilisé comme antidote pour annuler les effets thérapeutiques (effet sédatif, anticonvulsivant, anxiolytique, hypnotique, myorelaxant et amnésiant) ou toxiques (surdosage) des benzodiazépines, ainsi que pour le diagnostic différentiel des comas toxiques. Il a été commercialisé pour la première fois par le laboratoire Hoffmann-La Roche, en 1987, sous le nom de marque Anexate.
